--- a/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/1_quant-dynamic_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/1_quant-dynamic_metrics.xlsx
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.24</v>
+        <v>0.401</v>
       </c>
       <c r="C4" t="n">
-        <v>0.24</v>
+        <v>0.401</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.188</v>
+        <v>0.466</v>
       </c>
       <c r="C5" t="n">
-        <v>0.188</v>
+        <v>0.466</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.18</v>
+        <v>0.195</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18</v>
+        <v>0.195</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.074864812078886</v>
+        <v>2.021451746695675</v>
       </c>
       <c r="C4" t="n">
-        <v>2.049696905422024</v>
+        <v>2.049538062186912</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.21</v>
+        <v>1.39</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2286532271691823</v>
+        <v>0.1991458928951992</v>
       </c>
       <c r="F4" t="n">
-        <v>0.201598382178015</v>
+        <v>0.2144324428008564</v>
       </c>
       <c r="G4" t="n">
-        <v>-11.83</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="5">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.903</v>
+        <v>42.563</v>
       </c>
       <c r="C5" t="n">
-        <v>42.903</v>
+        <v>42.563</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.092185164498293</v>
+        <v>9.545076939014049</v>
       </c>
       <c r="C6" t="n">
-        <v>8.8339248657177</v>
+        <v>9.573272941870437</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.84</v>
+        <v>0.3</v>
       </c>
       <c r="E6" t="n">
-        <v>1.202597925055588</v>
+        <v>1.078614397909865</v>
       </c>
       <c r="F6" t="n">
-        <v>1.378629467070999</v>
+        <v>1.082979053681232</v>
       </c>
       <c r="G6" t="n">
-        <v>14.64</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/1_quant-dynamic_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/1_quant-dynamic_metrics.xlsx
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.401</v>
+        <v>0.364</v>
       </c>
       <c r="C4" t="n">
-        <v>0.401</v>
+        <v>0.364</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.466</v>
+        <v>0.358</v>
       </c>
       <c r="C5" t="n">
-        <v>0.466</v>
+        <v>0.358</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.195</v>
+        <v>0.288</v>
       </c>
       <c r="C6" t="n">
-        <v>0.195</v>
+        <v>0.288</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.021451746695675</v>
+        <v>2.16931012715213</v>
       </c>
       <c r="C4" t="n">
-        <v>2.049538062186912</v>
+        <v>2.145715626189485</v>
       </c>
       <c r="D4" t="n">
-        <v>1.39</v>
+        <v>-1.09</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1991458928951992</v>
+        <v>0.3697014508693768</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2144324428008564</v>
+        <v>0.3300882813380947</v>
       </c>
       <c r="G4" t="n">
-        <v>7.68</v>
+        <v>-10.71</v>
       </c>
     </row>
     <row r="5">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.563</v>
+        <v>39.773</v>
       </c>
       <c r="C5" t="n">
-        <v>42.563</v>
+        <v>39.773</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.545076939014049</v>
+        <v>9.293920564944719</v>
       </c>
       <c r="C6" t="n">
-        <v>9.573272941870437</v>
+        <v>9.53034507072471</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>2.54</v>
       </c>
       <c r="E6" t="n">
-        <v>1.078614397909865</v>
+        <v>1.385016423830865</v>
       </c>
       <c r="F6" t="n">
-        <v>1.082979053681232</v>
+        <v>1.045998269758634</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4</v>
+        <v>-24.48</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/1_quant-dynamic_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/1_quant-dynamic_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -574,13 +576,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -595,7 +597,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -610,7 +612,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -672,7 +674,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
